--- a/補講計画表.xlsx
+++ b/補講計画表.xlsx
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="181" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="182" formatCode="h:mm;@"/>
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="184" formatCode="aaa"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -395,11 +395,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -411,10 +411,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -429,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -441,7 +441,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -453,13 +453,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
@@ -468,13 +468,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -486,28 +486,28 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -528,8 +528,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -847,7 +862,7 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.5" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="44" customWidth="1"/>
     <col min="53" max="53" width="2.5" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -945,11 +960,13 @@
       <c r="H4" s="23">
         <v>0.375</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="22">
+        <v>1700</v>
+      </c>
       <c r="J4" s="39"/>
-      <c r="K4" s="44">
+      <c r="K4" s="45">
         <f>I4-H4</f>
-        <v>-0.375</v>
+        <v>1699.625</v>
       </c>
       <c r="BA4">
         <v>3</v>
@@ -987,7 +1004,10 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="40"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="46">
+        <f t="shared" ref="K5:K28" si="4">K4+I5-H5</f>
+        <v>1699.625</v>
+      </c>
       <c r="BA5">
         <v>4</v>
       </c>
@@ -1021,10 +1041,17 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="J6" s="41"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
       <c r="BA6">
         <v>5</v>
       </c>
@@ -1061,7 +1088,10 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
       <c r="BA7">
         <v>6</v>
       </c>
@@ -1098,7 +1128,10 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="42"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="48">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
       <c r="BA8">
         <v>7</v>
       </c>
@@ -1135,7 +1168,10 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="46">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="10" spans="1:54" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
@@ -1166,7 +1202,10 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="11" spans="1:54" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
@@ -1197,7 +1236,10 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="41"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="12" spans="1:54" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
@@ -1228,7 +1270,10 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="13" spans="1:54" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
@@ -1259,7 +1304,10 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="42"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="48">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="14" spans="1:54" ht="19.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20">
@@ -1290,7 +1338,10 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="46">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="15" spans="1:54" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
@@ -1321,7 +1372,10 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="41"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="16" spans="1:54" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
@@ -1352,7 +1406,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="41"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
@@ -1383,7 +1440,10 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="41"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
@@ -1404,7 +1464,10 @@
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="48">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="19.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20">
@@ -1425,7 +1488,10 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="16"/>
+      <c r="K19" s="46">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
@@ -1446,7 +1512,10 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="7"/>
+      <c r="K20" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
@@ -1467,7 +1536,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="41"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
@@ -1488,7 +1560,10 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="41"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27">
@@ -1509,7 +1584,10 @@
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="42"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="48">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="19.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
@@ -1530,7 +1608,10 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="41"/>
-      <c r="K24" s="7"/>
+      <c r="K24" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
@@ -1551,7 +1632,10 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="41"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
@@ -1572,7 +1656,10 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="41"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
@@ -1593,7 +1680,10 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="41"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="47">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
@@ -1614,7 +1704,10 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="43"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="49">
+        <f t="shared" si="4"/>
+        <v>1699.7708333333335</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1784,11 +1877,11 @@
         <v>43858</v>
       </c>
       <c r="B6" s="13">
-        <f t="shared" ref="B4:B29" si="4">WEEKDAY(A6)</f>
+        <f t="shared" ref="B6:B29" si="4">WEEKDAY(A6)</f>
         <v>3</v>
       </c>
       <c r="C6" s="34">
-        <f t="shared" ref="C4:C29" si="5">B6</f>
+        <f t="shared" ref="C6:C29" si="5">B6</f>
         <v>3</v>
       </c>
       <c r="D6" s="14">
